--- a/data/output/Sydney Premier League_R1_20250924.xlsx
+++ b/data/output/Sydney Premier League_R1_20250924.xlsx
@@ -17,11 +17,13 @@
     <sheet name="Concord Triathlon Club MVP" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Cronulla Triathlon Club MVP" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Macarthur Triathlon Club MVP" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Pulse Performance MVP" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="STG Triathlon Club MVP" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Warringah Triathlon Club MVP" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Sydney Round 1 Sprint Points" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Sydney Round 1 Aquabike Points" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Manly Vipers Triathlon Club MVP" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Pulse Performance MVP" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="STG Triathlon Club MVP" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Warringah Triathlon Club MVP" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Sydney Round 1 70.3 Points" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Sydney Round 1 Sprint Points" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Sydney Round 1 Aquabike Points" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -482,111 +484,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F2" t="n">
-        <v>152</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="E3" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="F3" t="n">
-        <v>253</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>207</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -596,16 +598,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
         <v>53</v>
@@ -618,16 +620,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>69</v>
@@ -640,16 +642,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>42</v>
@@ -658,29 +660,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -696,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,6 +780,66 @@
       </c>
       <c r="D3" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kaine WHITELAW</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TA114024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Male 25-29</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dale SMITH</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TA107761</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brett COLEMAN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TA141156</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,17 +886,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Rohan BROWN</t>
+          <t>Esteban GIMENEZ ZAPIOLA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA138096</t>
+          <t>TA105731</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Male 55-59</t>
+          <t>Male 35-39</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -844,60 +906,40 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hayden BROWN</t>
+          <t>Daniel MURRAY</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA126378</t>
+          <t>TA134419</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Male 25-29</t>
+          <t>Male 35-39</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nicholas KATSILIS</t>
+          <t>Neil CULKIN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA104203</t>
+          <t>TA3463</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Male 25-29</t>
+          <t>Male 40-44</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Jason TURNER</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TA132570</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Male 40-44</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,37 +987,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dylan CLOUGH</t>
+          <t>Rohan BROWN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA96125</t>
+          <t>TA138096</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Male 25-29</t>
+          <t>Male 55-59</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Emily IRVINE</t>
+          <t>Hayden BROWN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA139196</t>
+          <t>TA126378</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Female 25-29</t>
+          <t>Male 25-29</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -985,41 +1027,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Daniel X JAMES</t>
+          <t>Nicholas KATSILIS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA3369</t>
+          <t>TA104203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Male 45-49</t>
+          <t>Male 25-29</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Max FREEMAN</t>
+          <t>Jason TURNER</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA110515</t>
+          <t>TA132570</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Male 35-39</t>
+          <t>Male 40-44</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1033,7 +1075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,17 +1108,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sarah HOWITT</t>
+          <t>Dylan CLOUGH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA231</t>
+          <t>TA96125</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female 40-44</t>
+          <t>Male 25-29</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1086,180 +1128,300 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rob HOWITT</t>
+          <t>Emily IRVINE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA12752</t>
+          <t>TA139196</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Male 75-79</t>
+          <t>Female 25-29</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sharyn NICHOLS</t>
+          <t>Daniel X JAMES</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA88484</t>
+          <t>TA3369</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Female 60-64</t>
+          <t>Male 45-49</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daniel HOWITT</t>
+          <t>Anna WILCOX</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA81363</t>
+          <t>TA113972</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Male 40-44</t>
+          <t>Female 40-44</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anthony SPURRETT</t>
+          <t>Max FREEMAN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TA126064</t>
+          <t>TA110515</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Male 30-34</t>
+          <t>Male 35-39</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>James KNIGHT</t>
+          <t>Eden STRYDOM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TA4163</t>
+          <t>TA130976</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Male 50-54</t>
+          <t>Female 30-34</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Kelly LINTON</t>
+          <t>Sam DOUGLAS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA134082</t>
+          <t>TA26539</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Female 35-39</t>
+          <t>Male 30-34</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Steve NICHOLS</t>
+          <t>Victoria JAGUSCH</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA103520</t>
+          <t>TA140602</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Male 60-64</t>
+          <t>Female 18-24</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ben RYAN</t>
+          <t>Matthew YAZBEK</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TA131200</t>
+          <t>TA142539</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Male 45-49</t>
+          <t>Male 25-29</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>John VAN OMMEN</t>
+          <t>Shahan BHUIYAN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TA68424</t>
+          <t>TA135339</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Male 25-29</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vansh PATEL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA140335</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Male 18-24</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kevin SURJADI</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA128541</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male 25-29</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ryan VAN</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA133625</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Male 18-24</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Robert BRADLEY</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA136663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Male 50-54</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Katie MAUDSLEY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA115549</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Female 40-44</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Leigh LAVERY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TA109439</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1274,7 +1436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,183 +1447,503 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Club</t>
+          <t>Full Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Participation Points</t>
+          <t>TA Number</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Performance Points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Points</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+          <t>Rob HOWITT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TA12752</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Male 75-79</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>73</v>
+          <t>Sharyn NICHOLS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TA88484</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Female 60-64</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
+          <t>Graham BRUCE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TA1276</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Male 60-64</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
+          <t>Sarah HOWITT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TA231</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Female 40-44</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>46</v>
+          <t>Helen HUTCHINSON</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TA107747</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Female 35-39</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>19</v>
+          <t>Daniel HOWITT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TA81363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+          <t>Anthony SPURRETT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TA126064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26</v>
+          <t>Paul LINTON</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TA90783</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>35</v>
+          <t>Jonathan DELEU</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TA112183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>69</v>
+          <t>James KNIGHT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TA4163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>69</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kelly LINTON</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA134082</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Female 35-39</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ben RYAN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA131200</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Emily KEMPSON</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA5798</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Female 30-34</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Steve NICHOLS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA103520</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Male 60-64</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mariana FOGANHOLE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA125990</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Female 45-49</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fanny CHARLES</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TA137816</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Female 35-39</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>William RUSSELL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TA122217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Michael KALUZYNSKI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TA121633</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Andrew HOLT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TA90758</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Male 55-59</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Brad PICKARD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TA126394</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Julian NORTH</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TA22913</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Darren VORSTER</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TA79682</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Michael CRAWFORD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TA69039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>John VAN OMMEN</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TA68424</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1531,6 +2013,408 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brighton Baths Athletic Club</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Manly Vipers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pulse Performance</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Participation Points</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Balance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>73</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Brighton Baths Athletic Club</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Manly Vipers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pulse Performance</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26</v>
+      </c>
+      <c r="D9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>69</v>
+      </c>
+      <c r="D11" t="n">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Club</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Participation Points</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Performance Points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Balance Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
@@ -1719,111 +2603,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="F2" t="n">
-        <v>152</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D3" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="E3" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="F3" t="n">
-        <v>253</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>207</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1833,16 +2717,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
         <v>53</v>
@@ -1855,16 +2739,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>69</v>
@@ -1877,16 +2761,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>42</v>
@@ -1895,29 +2779,29 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Balance Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Manly Vipers Triathlon Club</t>
+          <t>Balance Triathlon Club</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1933,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +2831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2020,17 +2904,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sophie HARDWICK</t>
+          <t>Harry LINDBOM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA133416</t>
+          <t>TA59003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2040,17 +2924,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Maddie MORTON</t>
+          <t>Graham BRUCE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA90542</t>
+          <t>TA1276</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -2060,17 +2944,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Harry LINDBOM</t>
+          <t>Maddie MORTON</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TA59003</t>
+          <t>TA90542</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2100,17 +2984,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Owain MATTHEWS</t>
+          <t>Rob HOWITT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA2035</t>
+          <t>TA12752</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2120,17 +3004,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rob HOWITT</t>
+          <t>Owain MATTHEWS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA12752</t>
+          <t>TA2035</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -2180,57 +3064,57 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Anthony SPURRETT</t>
+          <t>Sophie HARDWICK</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TA126064</t>
+          <t>TA133416</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Daniel X JAMES</t>
+          <t>Travis SHIELDS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TA3369</t>
+          <t>TA8255</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Emily SWALES</t>
+          <t>Daniel HOWITT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TA105609</t>
+          <t>TA81363</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -2240,17 +3124,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Michelle CHEN</t>
+          <t>Anthony SPURRETT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TA122033</t>
+          <t>TA126064</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -2260,17 +3144,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rohan BROWN</t>
+          <t>Gemma FIGTREE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TA138096</t>
+          <t>TA128212</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2280,17 +3164,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jessica MONAGLE</t>
+          <t>Daniel X JAMES</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TA73706</t>
+          <t>TA3369</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2300,17 +3184,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hayden BROWN</t>
+          <t>Emily IRVINE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TA126378</t>
+          <t>TA139196</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -2320,17 +3204,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Matthew BONNY</t>
+          <t>Michelle CHEN</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TA103649</t>
+          <t>TA122033</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -2340,12 +3224,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Marcelo ROSSI</t>
+          <t>Matthew BONNY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TA66205</t>
+          <t>TA103649</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2360,17 +3244,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Daniel HOWITT</t>
+          <t>Jessica MONAGLE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TA81363</t>
+          <t>TA73706</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -2380,17 +3264,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Emily IRVINE</t>
+          <t>Rohan BROWN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TA139196</t>
+          <t>TA138096</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2400,480 +3284,1780 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nicholas KATSILIS</t>
+          <t>Marcelo ROSSI</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TA104203</t>
+          <t>TA66205</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jean KEVANS</t>
+          <t>Esteban GIMENEZ ZAPIOLA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TA84540</t>
+          <t>TA105731</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Guy DAVIES</t>
+          <t>Hayden BROWN</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TA65233</t>
+          <t>TA126378</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jarrod CRUMP</t>
+          <t>Helen HUTCHINSON</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TA14687</t>
+          <t>TA107747</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chris CLELAND</t>
+          <t>Emily SWALES</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TA79987</t>
+          <t>TA105609</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aileen DAVIDSON</t>
+          <t>Guy DAVIES</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TA40663</t>
+          <t>TA65233</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Max FREEMAN</t>
+          <t>Chris CLELAND</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TA110515</t>
+          <t>TA79987</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sharon VAHANIAN</t>
+          <t>Jarrod CRUMP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TA132579</t>
+          <t>TA14687</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>James KNIGHT</t>
+          <t>Phil LYNCH</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TA4163</t>
+          <t>TA5483</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Kelly LINTON</t>
+          <t>Jean KEVANS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TA134082</t>
+          <t>TA84540</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Rochelle MARTIN</t>
+          <t>Jonathan DELEU</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TA59867</t>
+          <t>TA112183</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ben TAYLOR</t>
+          <t>Nicholas KATSILIS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TA67609</t>
+          <t>TA104203</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Michael DONNELLAN</t>
+          <t>Anna WILCOX</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TA97329</t>
+          <t>TA113972</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jacobus PIENAAR</t>
+          <t>Paul LINTON</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TA89525</t>
+          <t>TA90783</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Claire ROBERTSON</t>
+          <t>James KNIGHT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TA0806</t>
+          <t>TA4163</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ben RYAN</t>
+          <t>Aileen DAVIDSON</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TA131200</t>
+          <t>TA40663</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Steve NICHOLS</t>
+          <t>Fasong KIM</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TA103520</t>
+          <t>TA115893</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Himanshu BHUTANI</t>
+          <t>Sharon VAHANIAN</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TA116631</t>
+          <t>TA132579</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Stephanie AYRE</t>
+          <t>Jen LAMY MEDINA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TA130898</t>
+          <t>TA117530</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ian TATTERSALL</t>
+          <t>Max FREEMAN</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TA47934</t>
+          <t>TA110515</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>David CRADDOCK</t>
+          <t>Rochelle MARTIN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TA121651</t>
+          <t>TA59867</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>John VAN OMMEN</t>
+          <t>Ben TAYLOR</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TA68424</t>
+          <t>TA67609</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Jason TURNER</t>
+          <t>Michael DONNELLAN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TA132570</t>
+          <t>TA97329</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>Mark PACEY</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TA11515</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kelly LINTON</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TA134082</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jacobus PIENAAR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TA89525</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Nathan DIXON</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TA133364</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Claire ROBERTSON</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TA0806</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ben RYAN</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TA131200</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Emily KEMPSON</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TA5798</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Steve NICHOLS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TA103520</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Brian BRADY</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TA7104</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Himanshu BHUTANI</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TA116631</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>David DIBDIN</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TA136440</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Brighton Baths Athletic Club</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Eden STRYDOM</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TA130976</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Joseph SQUADRITO</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TA112593</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sam DOUGLAS</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TA26539</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Stephanie AYRE</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TA130898</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ian TATTERSALL</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TA47934</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mariana FOGANHOLE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TA125990</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sam GRASSO</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TA136013</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ben BOYD</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TA4323</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Andrew HOLT</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TA90758</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Amy MCDONALD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TA135868</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Barton CHAMPNESS</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TA112255</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>David BENNEVAULT</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TA120094</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>David BROMFIELD</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TA101020</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Darren VORSTER</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TA79682</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Callum GILBERT</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TA139899</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Daniel MURRAY</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TA134419</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Manly Vipers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Dale SMITH</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TA107761</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Caroline HUYNH</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TA130197</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chris STEVENS</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TA115005</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>David CRADDOCK</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TA121651</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ben JAMES</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TA81416</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Brad PICKARD</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TA126394</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Brett COLEMAN</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TA141156</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Harriet MACDONALD</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TA138934</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Elouise BACON</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TA137584</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Eleanor THACKREY</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TA141258</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Fanny CHARLES</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TA137816</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Leigh LAVERY</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TA109439</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michael CRAWFORD</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TA69039</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Matthew YAZBEK</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TA142539</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Manon GUNDERSON-BRIGGS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TA130173</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jonathon TAN</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TA69350</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jake HUMMERSTON</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TA7546</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Jason TURNER</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TA132570</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Pulse Performance</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>John VAN OMMEN</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TA68424</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Julian NORTH</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TA22913</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Kevin SURJADI</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TA128541</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Kaine WHITELAW</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TA114024</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Katie MAUDSLEY</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TA115549</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Michael KALUZYNSKI</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TA121633</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ryan VAN</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TA133625</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Robert BRADLEY</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TA136663</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Neil CULKIN</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TA3463</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Manly Vipers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Nicole JANKOWSKI</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TA126537</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ruben GARCIA MOHEDANO</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TA105924</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sean BURRELL-SINCLAIR</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TA139051</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Shahan BHUIYAN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TA135339</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Stacey BUCKTON</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TA125630</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Timothy KING</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TA138497</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>Tony PERNA</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>TA83949</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Balmoral Triathlon Club</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tristan MACMANUS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TA100852</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Vansh PATEL</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TA140335</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Victoria JAGUSCH</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TA140602</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Warren EASTON</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TA13125</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>William RUSSELL</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TA122217</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2888,7 +5072,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2961,17 +5145,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Owain MATTHEWS</t>
+          <t>Graham BRUCE</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA2035</t>
+          <t>TA1276</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2981,17 +5165,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rob HOWITT</t>
+          <t>Owain MATTHEWS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA12752</t>
+          <t>TA2035</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3001,17 +5185,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Harry LINDBOM</t>
+          <t>Matthew FARMER</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TA59003</t>
+          <t>TA8180</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3021,17 +5205,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sharyn NICHOLS</t>
+          <t>Maddie MORTON</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TA88484</t>
+          <t>TA90542</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3041,17 +5225,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Matthew FARMER</t>
+          <t>Harry LINDBOM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA8180</t>
+          <t>TA59003</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3061,17 +5245,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Maddie MORTON</t>
+          <t>Travis SHIELDS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA90542</t>
+          <t>TA8255</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -3081,17 +5265,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sophie HARDWICK</t>
+          <t>Sharyn NICHOLS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TA133416</t>
+          <t>TA88484</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -3101,17 +5285,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sarah HOWITT</t>
+          <t>Sophie HARDWICK</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TA231</t>
+          <t>TA133416</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -3121,57 +5305,57 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Matthew BONNY</t>
+          <t>Rob HOWITT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TA103649</t>
+          <t>TA12752</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Emily SWALES</t>
+          <t>Sarah HOWITT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TA105609</t>
+          <t>TA231</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Emily IRVINE</t>
+          <t>Gemma FIGTREE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TA139196</t>
+          <t>TA128212</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -3181,17 +5365,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Daniel HOWITT</t>
+          <t>Jessica MONAGLE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TA81363</t>
+          <t>TA73706</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Macarthur Triathlon Club</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -3201,17 +5385,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Daniel X JAMES</t>
+          <t>Helen HUTCHINSON</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TA3369</t>
+          <t>TA107747</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3221,17 +5405,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hayden BROWN</t>
+          <t>Daniel HOWITT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TA126378</t>
+          <t>TA81363</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -3241,17 +5425,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Michelle CHEN</t>
+          <t>Rohan BROWN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TA122033</t>
+          <t>TA138096</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3261,17 +5445,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rohan BROWN</t>
+          <t>Matthew BONNY</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TA138096</t>
+          <t>TA103649</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -3301,17 +5485,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jessica MONAGLE</t>
+          <t>Michelle CHEN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TA73706</t>
+          <t>TA122033</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Macarthur Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -3321,17 +5505,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Anthony SPURRETT</t>
+          <t>Hayden BROWN</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TA126064</t>
+          <t>TA126378</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -3341,112 +5525,112 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Guy DAVIES</t>
+          <t>Daniel X JAMES</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TA65233</t>
+          <t>TA3369</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nicholas KATSILIS</t>
+          <t>Anthony SPURRETT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TA104203</t>
+          <t>TA126064</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jean KEVANS</t>
+          <t>Esteban GIMENEZ ZAPIOLA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TA84540</t>
+          <t>TA105731</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Manly Vipers Triathlon Club</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chris CLELAND</t>
+          <t>Emily SWALES</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TA79987</t>
+          <t>TA105609</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jarrod CRUMP</t>
+          <t>Emily IRVINE</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TA14687</t>
+          <t>TA139196</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aileen DAVIDSON</t>
+          <t>Phil LYNCH</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TA40663</t>
+          <t>TA5483</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3455,138 +5639,138 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sharon VAHANIAN</t>
+          <t>Chris CLELAND</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TA132579</t>
+          <t>TA79987</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brighton Baths Athletic Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Max FREEMAN</t>
+          <t>Guy DAVIES</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TA110515</t>
+          <t>TA65233</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>STG Triathlon Club</t>
+          <t>Concord Triathlon Club</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>James KNIGHT</t>
+          <t>Anna WILCOX</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TA4163</t>
+          <t>TA113972</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ben TAYLOR</t>
+          <t>Nicholas KATSILIS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TA67609</t>
+          <t>TA104203</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Pulse Performance</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Michael DONNELLAN</t>
+          <t>Paul LINTON</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TA97329</t>
+          <t>TA90783</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Kelly LINTON</t>
+          <t>Jarrod CRUMP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TA134082</t>
+          <t>TA14687</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Rochelle MARTIN</t>
+          <t>Jean KEVANS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TA59867</t>
+          <t>TA84540</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3595,226 +5779,1526 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Jacobus PIENAAR</t>
+          <t>Jonathan DELEU</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TA89525</t>
+          <t>TA112183</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Claire ROBERTSON</t>
+          <t>James KNIGHT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TA0806</t>
+          <t>TA4163</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Balmoral Triathlon Club</t>
+          <t>Warringah Triathlon Club</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ben RYAN</t>
+          <t>Fasong KIM</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TA131200</t>
+          <t>TA115893</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Steve NICHOLS</t>
+          <t>Aileen DAVIDSON</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TA103520</t>
+          <t>TA40663</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balmoral Triathlon Club</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Himanshu BHUTANI</t>
+          <t>Jen LAMY MEDINA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TA116631</t>
+          <t>TA117530</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Balance Tri Club</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ian TATTERSALL</t>
+          <t>Sharon VAHANIAN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TA47934</t>
+          <t>TA132579</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>Brighton Baths Athletic Club</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Stephanie AYRE</t>
+          <t>Max FREEMAN</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TA130898</t>
+          <t>TA110515</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Concord Triathlon Club</t>
+          <t>STG Triathlon Club</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>David CRADDOCK</t>
+          <t>Ben TAYLOR</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TA121651</t>
+          <t>TA67609</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cronulla Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jason TURNER</t>
+          <t>Mark PACEY</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TA132570</t>
+          <t>TA11515</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pulse Performance</t>
+          <t>Cronulla Triathlon Club</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>John VAN OMMEN</t>
+          <t>Michael DONNELLAN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TA68424</t>
+          <t>TA97329</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Warringah Triathlon Club</t>
+          <t>Balance Tri Club</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>Kelly LINTON</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TA134082</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rochelle MARTIN</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TA59867</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jacobus PIENAAR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>TA89525</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Nathan DIXON</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TA133364</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Claire ROBERTSON</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TA0806</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ben RYAN</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>TA131200</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Emily KEMPSON</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TA5798</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Steve NICHOLS</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TA103520</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Himanshu BHUTANI</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TA116631</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Brian BRADY</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>TA7104</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sam DOUGLAS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>TA26539</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>David DIBDIN</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TA136440</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Brighton Baths Athletic Club</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Eden STRYDOM</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TA130976</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Joseph SQUADRITO</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TA112593</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Mariana FOGANHOLE</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TA125990</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Stephanie AYRE</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TA130898</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ian TATTERSALL</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>TA47934</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sam GRASSO</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>TA136013</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Eleanor THACKREY</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TA141258</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Elouise BACON</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>TA137584</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Harriet MACDONALD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TA138934</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Fanny CHARLES</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TA137816</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Darren VORSTER</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TA79682</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ben JAMES</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TA81416</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Andrew HOLT</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TA90758</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Amy MCDONALD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TA135868</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Barton CHAMPNESS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TA112255</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ben BOYD</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TA4323</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>David BENNEVAULT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TA120094</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>David BROMFIELD</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TA101020</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>David CRADDOCK</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TA121651</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Daniel MURRAY</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TA134419</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Manly Vipers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Callum GILBERT</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TA139899</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Brad PICKARD</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TA126394</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chris STEVENS</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TA115005</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Caroline HUYNH</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TA130197</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Brett COLEMAN</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TA141156</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Dale SMITH</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TA107761</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>John VAN OMMEN</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TA68424</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Matthew YAZBEK</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>TA142539</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Manon GUNDERSON-BRIGGS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TA130173</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Kaine WHITELAW</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TA114024</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Macarthur Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Katie MAUDSLEY</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TA115549</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Julian NORTH</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TA22913</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Kevin SURJADI</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TA128541</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Leigh LAVERY</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TA109439</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Jason TURNER</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TA132570</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Pulse Performance</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Jake HUMMERSTON</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TA7546</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jonathon TAN</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TA69350</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Michael KALUZYNSKI</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TA121633</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ryan VAN</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TA133625</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ruben GARCIA MOHEDANO</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TA105924</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Balance Tri Club</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Robert BRADLEY</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TA136663</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Nicole JANKOWSKI</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TA126537</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michael CRAWFORD</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TA69039</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Neil CULKIN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TA3463</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Manly Vipers Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Stacey BUCKTON</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TA125630</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Shahan BHUIYAN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TA135339</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sean BURRELL-SINCLAIR</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>TA139051</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Balmoral Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Timothy KING</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TA138497</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>Tony PERNA</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>TA83949</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Balmoral Triathlon Club</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tristan MACMANUS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TA100852</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Cronulla Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Vansh PATEL</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TA140335</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Victoria JAGUSCH</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TA140602</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>STG Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Warren EASTON</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TA13125</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Concord Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>William RUSSELL</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TA122217</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Warringah Triathlon Club</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3829,7 +7313,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,81 +7346,281 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Emily SWALES</t>
+          <t>Travis SHIELDS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA105609</t>
+          <t>TA8255</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female 45-49</t>
+          <t>Male 45-49</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Michael DONNELLAN</t>
+          <t>Emily SWALES</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA97329</t>
+          <t>TA105609</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Male 50-54</t>
+          <t>Female 45-49</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ben TAYLOR</t>
+          <t>Fasong KIM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA67609</t>
+          <t>TA115893</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Male 40-44</t>
+          <t>Female 35-39</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Michael DONNELLAN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TA97329</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Ben TAYLOR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TA67609</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Himanshu BHUTANI</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>TA116631</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Male 45-49</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D7" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Joseph SQUADRITO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TA112593</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Caroline HUYNH</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TA130197</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Female 35-39</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Elouise BACON</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TA137584</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Female 25-29</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Harriet MACDONALD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TA138934</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Female 25-29</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jonathon TAN</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA69350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ruben GARCIA MOHEDANO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA105924</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Amy MCDONALD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA135868</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Female 45-49</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>David BROMFIELD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA101020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +7634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3983,17 +7667,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Owain MATTHEWS</t>
+          <t>Alex PREVITERA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA2035</t>
+          <t>TA114243</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Male 40-44</t>
+          <t>Male 30-34</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4003,17 +7687,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Matthew FARMER</t>
+          <t>Owain MATTHEWS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA8180</t>
+          <t>TA2035</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Male 55-59</t>
+          <t>Male 40-44</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4023,17 +7707,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alex PREVITERA</t>
+          <t>Matthew FARMER</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TA114243</t>
+          <t>TA8180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Male 30-34</t>
+          <t>Male 55-59</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -4043,17 +7727,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Michelle CHEN</t>
+          <t>Gemma FIGTREE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TA122033</t>
+          <t>TA128212</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Female 55-59</t>
+          <t>Female 50-54</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -4063,37 +7747,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jean KEVANS</t>
+          <t>Michelle CHEN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TA84540</t>
+          <t>TA122033</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Female 50-54</t>
+          <t>Female 55-59</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chris CLELAND</t>
+          <t>Phil LYNCH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TA79987</t>
+          <t>TA5483</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Male 30-34</t>
+          <t>Male 60-64</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -4103,80 +7787,240 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aileen DAVIDSON</t>
+          <t>Chris CLELAND</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TA40663</t>
+          <t>TA79987</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Female 45-49</t>
+          <t>Male 30-34</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rochelle MARTIN</t>
+          <t>Jean KEVANS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TA59867</t>
+          <t>TA84540</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Female 40-44</t>
+          <t>Female 50-54</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Claire ROBERTSON</t>
+          <t>Aileen DAVIDSON</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TA0806</t>
+          <t>TA40663</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Female 50-54</t>
+          <t>Female 45-49</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Rochelle MARTIN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TA59867</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Female 40-44</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Claire ROBERTSON</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA0806</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Female 50-54</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Brian BRADY</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA7104</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Manon GUNDERSON-BRIGGS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA130173</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Female 30-34</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Eleanor THACKREY</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA141258</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Female 25-29</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ben JAMES</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA81416</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ben BOYD</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TA4323</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sean BURRELL-SINCLAIR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TA139051</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Male 35-39</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Tony PERNA</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>TA83949</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Male 40-44</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4191,7 +8035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4239,6 +8083,26 @@
       </c>
       <c r="D2" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>David DIBDIN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TA136440</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male 55-59</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4252,7 +8116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4360,6 +8224,66 @@
       </c>
       <c r="D5" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Barton CHAMPNESS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TA112255</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Male 55-59</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>David BENNEVAULT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TA120094</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Male 45-49</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Warren EASTON</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TA13125</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4373,7 +8297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4406,17 +8330,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Maddie MORTON</t>
+          <t>Sophie HARDWICK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TA90542</t>
+          <t>TA133416</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female 30-34</t>
+          <t>Female 16-19</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4426,17 +8350,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sophie HARDWICK</t>
+          <t>Maddie MORTON</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TA133416</t>
+          <t>TA90542</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Female 16-19</t>
+          <t>Female 30-34</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4506,20 +8430,240 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Jen LAMY MEDINA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TA117530</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Female 45-49</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mark PACEY</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TA11515</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Male 50-54</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Nathan DIXON</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TA133364</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sam GRASSO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TA136013</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Callum GILBERT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TA139899</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Male 18-24</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Tristan MACMANUS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TA100852</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Stacey BUCKTON</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TA125630</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Female 35-39</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Timothy KING</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TA138497</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Male 30-34</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jake HUMMERSTON</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TA7546</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Male 18-24</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chris STEVENS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TA115005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Male 40-44</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>David CRADDOCK</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>TA121651</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Male 40-44</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nicole JANKOWSKI</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TA126537</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Female 45-49</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
